--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="112">
   <si>
     <t>Sezione</t>
   </si>
@@ -330,12 +330,6 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
-  </si>
-  <si>
-    <t>Autorità mittente</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.autoritaMittente</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -412,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -421,7 +415,7 @@
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="40.45703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -614,7 +608,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>25</v>
@@ -634,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>25</v>
@@ -654,7 +648,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -674,7 +668,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
@@ -694,7 +688,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>25</v>
@@ -794,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>25</v>
@@ -814,7 +808,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>25</v>
@@ -834,7 +828,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>25</v>
@@ -854,7 +848,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
@@ -1054,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>70</v>
@@ -1074,7 +1068,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>70</v>
@@ -1094,7 +1088,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>70</v>
@@ -1114,7 +1108,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>70</v>
@@ -1134,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>70</v>
@@ -1234,7 +1228,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>70</v>
@@ -1254,7 +1248,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>70</v>
@@ -1274,7 +1268,7 @@
         <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>70</v>
@@ -1294,7 +1288,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>70</v>
@@ -1951,16 +1945,16 @@
         <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -1971,118 +1965,18 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F83" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -1588,7 +1588,7 @@
         <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>74</v>
@@ -1608,7 +1608,7 @@
         <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>74</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -406,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -418,6 +424,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -439,45 +446,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -499,1485 +515,1710 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -424,7 +424,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="115">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -516,1709 +519,1709 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="118">
   <si>
     <t>Sezione</t>
   </si>
@@ -158,6 +158,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -339,6 +345,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -415,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1059,7 +1068,7 @@
         <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>28</v>
@@ -1122,19 +1131,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1145,19 +1154,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1168,19 +1177,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1191,19 +1200,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1214,19 +1223,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1237,19 +1246,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1260,19 +1269,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1283,19 +1292,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1306,19 +1315,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1329,19 +1338,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1352,19 +1361,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1375,19 +1384,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1407,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1430,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1453,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1467,19 +1476,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1490,19 +1499,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1522,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1545,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1568,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1591,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1614,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1631,16 +1640,16 @@
         <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1654,7 +1663,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1663,7 +1672,7 @@
         <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,10 +1683,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -1686,7 +1695,7 @@
         <v>77</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1706,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1729,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1752,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1775,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1798,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1821,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1844,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1867,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1890,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1913,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1936,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1950,10 +1959,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
@@ -1962,7 +1971,7 @@
         <v>77</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1982,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2005,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2028,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2051,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2074,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2097,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2120,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2143,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2166,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2189,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2203,24 +2212,116 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -38,7 +38,7 @@
     <t>Allegati</t>
   </si>
   <si>
-    <t>Attestazione di nascita</t>
+    <t>Atto di dichiarazione di nascita redatto dalla direzione sanitaria</t>
   </si>
   <si>
     <t>SI</t>
@@ -431,7 +431,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="57.42578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
@@ -2264,7 +2264,7 @@
         <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>93</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Padre</t>
@@ -424,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1154,19 +1178,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C32" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1177,19 +1201,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1200,19 +1224,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1223,19 +1247,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1246,19 +1270,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1269,19 +1293,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1292,19 +1316,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1315,19 +1339,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1338,19 +1362,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1361,19 +1385,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1384,19 +1408,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1407,19 +1431,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1430,19 +1454,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1453,19 +1477,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1476,19 +1500,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1499,19 +1523,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1522,19 +1546,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1545,19 +1569,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1568,19 +1592,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1591,19 +1615,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1614,19 +1638,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1637,19 +1661,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1660,19 +1684,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1707,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1730,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1753,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1776,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1799,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1822,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1845,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1868,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1891,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1890,19 +1914,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1913,19 +1937,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1960,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1983,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1982,19 +2006,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2029,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2052,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2075,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2074,7 +2098,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
@@ -2083,10 +2107,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2097,19 +2121,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2144,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2143,19 +2167,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2190,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2189,19 +2213,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2212,19 +2236,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2259,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2282,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2305,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2304,24 +2328,300 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -110,6 +110,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -164,13 +170,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -448,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1115,7 +1121,7 @@
         <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1184,7 +1190,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1270,19 +1276,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1293,19 +1299,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1316,19 +1322,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1339,19 +1345,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1362,19 +1368,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
@@ -1903,7 +1909,7 @@
         <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1917,16 +1923,16 @@
         <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,10 +1943,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -1949,7 +1955,7 @@
         <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,10 +2035,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
@@ -2041,7 +2047,7 @@
         <v>87</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,7 +2081,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>36</v>
@@ -2084,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>37</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2213,10 +2219,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>27</v>
@@ -2225,7 +2231,7 @@
         <v>87</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2604,24 +2610,93 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="E96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1144,7 +1150,7 @@
         <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>28</v>
@@ -1213,7 +1219,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1299,19 +1305,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1322,19 +1328,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1345,19 +1351,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1368,19 +1374,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1391,19 +1397,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1414,19 +1420,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1443,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1466,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1489,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1512,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1946,7 +1952,7 @@
         <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
@@ -1955,7 +1961,7 @@
         <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1969,16 +1975,16 @@
         <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,10 +1995,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
@@ -2001,7 +2007,7 @@
         <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2288,10 +2294,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
@@ -2300,7 +2306,7 @@
         <v>89</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2317,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2679,24 +2685,70 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="E98" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -460,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1173,7 +1179,7 @@
         <v>72</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1248,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
@@ -1328,19 +1334,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1351,19 +1357,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1374,19 +1380,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1397,19 +1403,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1420,19 +1426,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1443,19 +1449,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1472,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1518,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1541,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1564,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1725,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1748,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,7 +2004,7 @@
         <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>27</v>
@@ -2007,7 +2013,7 @@
         <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,16 +2027,16 @@
         <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,10 +2047,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>27</v>
@@ -2053,7 +2059,7 @@
         <v>91</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2070,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2116,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2162,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2323,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2340,10 +2346,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>27</v>
@@ -2352,7 +2358,7 @@
         <v>91</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2363,19 +2369,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2530,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2714,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2731,24 +2737,70 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -1202,7 +1202,7 @@
         <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>28</v>
@@ -1225,7 +1225,7 @@
         <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>28</v>
@@ -1248,7 +1248,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>28</v>
@@ -1892,7 +1892,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>89</v>
@@ -1915,7 +1915,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>89</v>
@@ -1938,7 +1938,7 @@
         <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>89</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -38,15 +38,21 @@
     <t>Allegati</t>
   </si>
   <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Atto di dichiarazione di nascita redatto dalla direzione sanitaria</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -93,9 +99,6 @@
   </si>
   <si>
     <t>Cognome</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.madre</t>
@@ -466,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -529,14 +532,14 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
@@ -551,86 +554,86 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -639,21 +642,21 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>24</v>
@@ -662,2091 +665,2091 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>125</v>
@@ -2755,53 +2758,76 @@
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>18</v>
+      <c r="C102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -469,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1383,19 +1395,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1406,19 +1418,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1429,19 +1441,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,19 +1464,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1475,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1498,19 +1510,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1521,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1544,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1567,19 +1579,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1590,19 +1602,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1613,19 +1625,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1636,19 +1648,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1659,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1682,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1705,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1728,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1751,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1774,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1797,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1820,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1843,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1866,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1889,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1912,19 +1924,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1935,19 +1947,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1958,19 +1970,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1981,19 +1993,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2004,19 +2016,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2027,19 +2039,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2050,19 +2062,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2073,19 +2085,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2096,19 +2108,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2119,10 +2131,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2131,7 +2143,7 @@
         <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2142,11 +2154,11 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2165,19 +2177,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2188,19 +2200,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2211,19 +2223,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2234,19 +2246,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2257,19 +2269,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2280,19 +2292,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2303,16 +2315,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>42</v>
@@ -2326,19 +2338,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2349,19 +2361,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2372,19 +2384,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2395,19 +2407,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2418,19 +2430,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2441,19 +2453,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2464,19 +2476,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2487,19 +2499,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2510,19 +2522,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2533,19 +2545,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2556,19 +2568,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2579,19 +2591,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2602,19 +2614,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2625,19 +2637,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2648,19 +2660,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2671,19 +2683,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2694,19 +2706,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2717,19 +2729,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2740,19 +2752,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2763,19 +2775,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2786,19 +2798,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2809,24 +2821,116 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="B105" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_022.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -405,6 +405,87 @@
   </si>
   <si>
     <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Atto di pre riconoscimento</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.riconoscimento.atto</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Dati della trascrizione</t>
@@ -481,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.9921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="57.42578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2896,7 +2977,7 @@
         <v>132</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>133</v>
@@ -2908,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="106">
@@ -2916,7 +2997,7 @@
         <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>12</v>
@@ -2925,12 +3006,311 @@
         <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>20</v>
       </c>
     </row>
